--- a/Documentation/hoja de costes.xlsx
+++ b/Documentation/hoja de costes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultim\Desktop\gdd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultim\Desktop\Semestre X\VR2 - Realidad Virtual 2\Parcial 2\Pokevision\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8B690-D328-4170-BB2E-1954BBAEBB95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB0F1B-280C-4947-B642-986CB7366A6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Tiempo estimado</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Programadores</t>
   </si>
   <si>
-    <t>costo total de equipos</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -60,30 +57,9 @@
     <t>total</t>
   </si>
   <si>
-    <t>andy</t>
-  </si>
-  <si>
-    <t>programacion</t>
-  </si>
-  <si>
-    <t>los tres pendejos</t>
-  </si>
-  <si>
     <t>carlos</t>
   </si>
   <si>
-    <t>diseño</t>
-  </si>
-  <si>
-    <t>todo menos yo</t>
-  </si>
-  <si>
-    <t>pancho</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
     <t>eduardo</t>
   </si>
   <si>
@@ -121,6 +97,12 @@
   </si>
   <si>
     <t>rene</t>
+  </si>
+  <si>
+    <t>total de diseño</t>
+  </si>
+  <si>
+    <t>costos de desarrollo</t>
   </si>
 </sst>
 </file>
@@ -158,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,16 +465,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -511,175 +495,153 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <f>F9+F19+F25</f>
-        <v>20706</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <f>F9+F19+F25+H22</f>
-        <v>41034</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="C6" s="1">
         <v>90</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D8" si="0">C6*B6</f>
-        <v>1890</v>
+        <v>1485</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E8" si="1">D6*$B$2</f>
-        <v>302.40000000000003</v>
+        <v>237.6</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F8" si="2">D6+E6</f>
-        <v>2192.4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>1722.6</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>480</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>2436</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>3480</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="C8" s="1">
         <v>120</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>1980</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>403.2</v>
+        <v>316.8</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>2923.2</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>2296.8000000000002</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9">
         <f>SUM(F6:F8)</f>
-        <v>7551.5999999999995</v>
+        <v>7499.4000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>10.5</v>
@@ -699,16 +661,16 @@
         <f t="shared" ref="F13:F15" si="5">D13+E13</f>
         <v>1218</v>
       </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>10.5</v>
@@ -728,17 +690,23 @@
         <f t="shared" si="5"/>
         <v>1218</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
         <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <f>B13+B23</f>
+        <v>30.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>10.5</v>
@@ -758,17 +726,23 @@
         <f t="shared" si="5"/>
         <v>1218</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
         <v>300</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2">
+        <f>B14+B6</f>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>10.5</v>
@@ -788,21 +762,26 @@
         <f t="shared" ref="F16:F18" si="8">D16+E16</f>
         <v>1218</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16">
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
         <v>100</v>
       </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <f>B7</f>
+        <v>30</v>
+      </c>
       <c r="M16">
-        <f>69*3</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>10.5</v>
@@ -822,22 +801,32 @@
         <f t="shared" si="8"/>
         <v>1218</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <f>J13+J14+J15+J16</f>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f>I13+I14+I15+I16</f>
         <v>800</v>
       </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <f>B15+B24</f>
+        <v>30.5</v>
+      </c>
       <c r="M17">
-        <f>207/7</f>
-        <v>29.571428571428573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(63*3)/7</f>
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <f>B6+B7+B8</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>10.5</v>
@@ -858,107 +847,141 @@
         <v>1218</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2">
+        <f>B16+B8</f>
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <f>B13+B14+B15+B16+B17+B18</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19">
         <f>SUM(F13:F18)</f>
         <v>7308</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="1">
-        <f>300+100+120+100</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f>I17*21+F19</f>
+        <v>24108</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2">
+        <f>B17</f>
+        <v>10.5</v>
+      </c>
+      <c r="N19">
+        <f>B23+B24</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="K20" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21">
-        <f>21*H20</f>
-        <v>13020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <f>B18</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <f>H21+F19</f>
-        <v>20328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>120</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D24" si="9">C23*B23</f>
-        <v>2520</v>
+        <v>2400</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E24" si="10">D23*$B$2</f>
-        <v>403.2</v>
+        <v>384</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F24" si="11">D23+E23</f>
-        <v>2923.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
         <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>120</v>
       </c>
       <c r="D24">
         <f t="shared" si="9"/>
-        <v>2520</v>
+        <v>2400</v>
       </c>
       <c r="E24">
         <f t="shared" si="10"/>
-        <v>403.2</v>
+        <v>384</v>
       </c>
       <c r="F24">
         <f t="shared" si="11"/>
-        <v>2923.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25">
         <f>SUM(F23:F24)</f>
-        <v>5846.4</v>
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f>F9+I19+F25</f>
+        <v>37175.4</v>
       </c>
     </row>
   </sheetData>
